--- a/data/cleaned_data/2018_GA.xlsx
+++ b/data/cleaned_data/2018_GA.xlsx
@@ -22,7 +22,7 @@
     <t>County</t>
   </si>
   <si>
-    <t>fatalaties</t>
+    <t>fatalities</t>
   </si>
   <si>
     <t>injuries</t>
